--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H2">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I2">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J2">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N2">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q2">
-        <v>1.483955206860889</v>
+        <v>0.7427043504433333</v>
       </c>
       <c r="R2">
-        <v>13.355596861748</v>
+        <v>6.684339153989999</v>
       </c>
       <c r="S2">
-        <v>0.0005527777278347253</v>
+        <v>0.0002266975390707789</v>
       </c>
       <c r="T2">
-        <v>0.0005527777278347254</v>
+        <v>0.0002266975390707789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H3">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I3">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J3">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>74.544746</v>
       </c>
       <c r="O3">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P3">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q3">
-        <v>89.20816137217511</v>
+        <v>58.9962194448191</v>
       </c>
       <c r="R3">
-        <v>802.873452349576</v>
+        <v>530.9659750033719</v>
       </c>
       <c r="S3">
-        <v>0.03323030541598226</v>
+        <v>0.01800756620671035</v>
       </c>
       <c r="T3">
-        <v>0.03323030541598226</v>
+        <v>0.01800756620671035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H4">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I4">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J4">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N4">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q4">
-        <v>14.93810441612755</v>
+        <v>30.54959300391467</v>
       </c>
       <c r="R4">
-        <v>134.442939745148</v>
+        <v>274.946337035232</v>
       </c>
       <c r="S4">
-        <v>0.005564488320892389</v>
+        <v>0.009324730021397313</v>
       </c>
       <c r="T4">
-        <v>0.005564488320892391</v>
+        <v>0.009324730021397313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.590118666666667</v>
+        <v>2.374260666666666</v>
       </c>
       <c r="H5">
-        <v>10.770356</v>
+        <v>7.122781999999999</v>
       </c>
       <c r="I5">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="J5">
-        <v>0.03935865391742773</v>
+        <v>0.0276017086472712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N5">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q5">
-        <v>0.02975131339066667</v>
+        <v>0.1399420893742222</v>
       </c>
       <c r="R5">
-        <v>0.267761820516</v>
+        <v>1.259478804368</v>
       </c>
       <c r="S5">
-        <v>1.108245271835436E-05</v>
+        <v>4.271488009276134E-05</v>
       </c>
       <c r="T5">
-        <v>1.108245271835436E-05</v>
+        <v>4.271488009276134E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>230.774651</v>
       </c>
       <c r="I6">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J6">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N6">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q6">
-        <v>31.79646475594256</v>
+        <v>24.06325748418834</v>
       </c>
       <c r="R6">
-        <v>286.168182803483</v>
+        <v>216.569317357695</v>
       </c>
       <c r="S6">
-        <v>0.01184427768419463</v>
+        <v>0.007344889322966487</v>
       </c>
       <c r="T6">
-        <v>0.01184427768419463</v>
+        <v>0.007344889322966487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>230.774651</v>
       </c>
       <c r="I7">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J7">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>74.544746</v>
       </c>
       <c r="O7">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P7">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q7">
         <v>1911.448638003739</v>
@@ -883,10 +883,10 @@
         <v>17203.03774203365</v>
       </c>
       <c r="S7">
-        <v>0.7120203022998234</v>
+        <v>0.5834363324208118</v>
       </c>
       <c r="T7">
-        <v>0.7120203022998234</v>
+        <v>0.5834363324208118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>230.774651</v>
       </c>
       <c r="I8">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J8">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N8">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q8">
-        <v>320.0763125409592</v>
+        <v>989.7918627399308</v>
       </c>
       <c r="R8">
-        <v>2880.686812868633</v>
+        <v>8908.126764659377</v>
       </c>
       <c r="S8">
-        <v>0.1192293783276539</v>
+        <v>0.3021166892875828</v>
       </c>
       <c r="T8">
-        <v>0.1192293783276539</v>
+        <v>0.3021166892875828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>230.774651</v>
       </c>
       <c r="I9">
-        <v>0.8433314202078528</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="J9">
-        <v>0.8433314202078527</v>
+        <v>0.8942818522422411</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N9">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q9">
-        <v>0.6374765109456668</v>
+        <v>4.534055209824889</v>
       </c>
       <c r="R9">
-        <v>5.737288598511</v>
+        <v>40.806496888424</v>
       </c>
       <c r="S9">
-        <v>0.0002374618961807974</v>
+        <v>0.001383941210879941</v>
       </c>
       <c r="T9">
-        <v>0.0002374618961807974</v>
+        <v>0.001383941210879941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H10">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I10">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J10">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N10">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q10">
-        <v>4.405770562780888</v>
+        <v>2.07241439012</v>
       </c>
       <c r="R10">
-        <v>39.65193506502799</v>
+        <v>18.65172951108</v>
       </c>
       <c r="S10">
-        <v>0.001641162637386428</v>
+        <v>0.000632568318597615</v>
       </c>
       <c r="T10">
-        <v>0.001641162637386428</v>
+        <v>0.0006325683185976151</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H11">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I11">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J11">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>74.544746</v>
       </c>
       <c r="O11">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P11">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q11">
-        <v>264.8534736872151</v>
+        <v>164.6208401326027</v>
       </c>
       <c r="R11">
-        <v>2383.681263184936</v>
+        <v>1481.587561193424</v>
       </c>
       <c r="S11">
-        <v>0.09865870662205069</v>
+        <v>0.05024763799424185</v>
       </c>
       <c r="T11">
-        <v>0.09865870662205069</v>
+        <v>0.05024763799424185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H12">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I12">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J12">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N12">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q12">
-        <v>44.35030140804755</v>
+        <v>85.244439615616</v>
       </c>
       <c r="R12">
-        <v>399.1527126724279</v>
+        <v>767.199956540544</v>
       </c>
       <c r="S12">
-        <v>0.0165206191721823</v>
+        <v>0.02601937725124743</v>
       </c>
       <c r="T12">
-        <v>0.0165206191721823</v>
+        <v>0.02601937725124744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.65883866666667</v>
+        <v>6.625048</v>
       </c>
       <c r="H13">
-        <v>31.976516</v>
+        <v>19.875144</v>
       </c>
       <c r="I13">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495823</v>
       </c>
       <c r="J13">
-        <v>0.1168533915433334</v>
+        <v>0.07701877356495825</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N13">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q13">
-        <v>0.08832979603066667</v>
+        <v>0.3904891625173333</v>
       </c>
       <c r="R13">
-        <v>0.7949681642759999</v>
+        <v>3.514402462656</v>
       </c>
       <c r="S13">
-        <v>3.290311171401406E-05</v>
+        <v>0.00011919000087134</v>
       </c>
       <c r="T13">
-        <v>3.290311171401405E-05</v>
+        <v>0.00011919000087134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H14">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I14">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J14">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N14">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O14">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P14">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q14">
-        <v>0.017212898073</v>
+        <v>0.02953588802833334</v>
       </c>
       <c r="R14">
-        <v>0.154916082657</v>
+        <v>0.265822992255</v>
       </c>
       <c r="S14">
-        <v>6.411855723307977E-06</v>
+        <v>9.015314271818199E-06</v>
       </c>
       <c r="T14">
-        <v>6.411855723307978E-06</v>
+        <v>9.015314271818199E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H15">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I15">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J15">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>74.544746</v>
       </c>
       <c r="O15">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P15">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q15">
-        <v>1.034755619226</v>
+        <v>2.346163356357111</v>
       </c>
       <c r="R15">
-        <v>9.312800573034002</v>
+        <v>21.115470207214</v>
       </c>
       <c r="S15">
-        <v>0.000385449545522288</v>
+        <v>0.0007161254122541679</v>
       </c>
       <c r="T15">
-        <v>0.0003854495455222881</v>
+        <v>0.0007161254122541679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H16">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I16">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J16">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N16">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O16">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P16">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q16">
-        <v>0.173272122723</v>
+        <v>1.214897095642667</v>
       </c>
       <c r="R16">
-        <v>1.559449104507</v>
+        <v>10.934073860784</v>
       </c>
       <c r="S16">
-        <v>6.454438102517368E-05</v>
+        <v>0.0003708261324200265</v>
       </c>
       <c r="T16">
-        <v>6.454438102517369E-05</v>
+        <v>0.0003708261324200265</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04164300000000001</v>
+        <v>0.09441966666666667</v>
       </c>
       <c r="H17">
-        <v>0.124929</v>
+        <v>0.283259</v>
       </c>
       <c r="I17">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="J17">
-        <v>0.0004565343313861055</v>
+        <v>0.001097665545529457</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N17">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q17">
-        <v>0.0003450955410000001</v>
+        <v>0.005565221046222223</v>
       </c>
       <c r="R17">
-        <v>0.003105859869</v>
+        <v>0.050086989416</v>
       </c>
       <c r="S17">
-        <v>1.28549115335769E-07</v>
+        <v>1.698686583443869E-06</v>
       </c>
       <c r="T17">
-        <v>1.28549115335769E-07</v>
+        <v>1.698686583443869E-06</v>
       </c>
     </row>
   </sheetData>
